--- a/outputs-HGR-r202-archive3/g__Eggerthella.xlsx
+++ b/outputs-HGR-r202-archive3/g__Eggerthella.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
         </is>
       </c>
     </row>
@@ -470,18 +470,18 @@
       <c r="B2" t="n">
         <v>86.96412674037494</v>
       </c>
-      <c r="C2" t="n">
-        <v>86.96412674037494</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -493,18 +493,18 @@
       <c r="B3" t="n">
         <v>88.23533220748902</v>
       </c>
-      <c r="C3" t="n">
-        <v>88.23533220748902</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -516,18 +516,18 @@
       <c r="B4" t="n">
         <v>88.86091978485325</v>
       </c>
-      <c r="C4" t="n">
-        <v>88.86091978485325</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -539,18 +539,18 @@
       <c r="B5" t="n">
         <v>86.58606956187404</v>
       </c>
-      <c r="C5" t="n">
-        <v>86.58606956187404</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -562,18 +562,18 @@
       <c r="B6" t="n">
         <v>87.98819009526052</v>
       </c>
-      <c r="C6" t="n">
-        <v>87.98819009526052</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -585,18 +585,18 @@
       <c r="B7" t="n">
         <v>87.23975458586851</v>
       </c>
-      <c r="C7" t="n">
-        <v>87.23975458586851</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -608,18 +608,18 @@
       <c r="B8" t="n">
         <v>87.77061600164274</v>
       </c>
-      <c r="C8" t="n">
-        <v>87.77061600164274</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -631,18 +631,18 @@
       <c r="B9" t="n">
         <v>85.34882128613677</v>
       </c>
-      <c r="C9" t="n">
-        <v>85.34882128613677</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>s__Eggerthella lenta</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>s__Eggerthella lenta</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Eggerthella lenta</t>
-        </is>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
